--- a/src/main/resources/Test_Data.xlsx
+++ b/src/main/resources/Test_Data.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\githi\IdeaProjects\DemoWebShop\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C2C95-0631-475A-89A6-CE2B561671FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="homepage" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="registerPage" sheetId="4" r:id="rId3"/>
+    <sheet name="JewelryPage" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +27,115 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>Demo Web Shop</t>
+  </si>
+  <si>
+    <t>githi1234@gmail.com</t>
+  </si>
+  <si>
+    <t>g123J45678</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>githi</t>
+  </si>
+  <si>
+    <t>anni</t>
+  </si>
+  <si>
+    <t>123obs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MenuOption</t>
+  </si>
+  <si>
+    <t>SortOption</t>
+  </si>
+  <si>
+    <t>product name</t>
+  </si>
+  <si>
+    <t>JEWELRY</t>
+  </si>
+  <si>
+    <t>Postion</t>
+  </si>
+  <si>
+    <t>Black &amp; White Diamond Heart</t>
+  </si>
+  <si>
+    <t>Name: A to Z</t>
+  </si>
+  <si>
+    <t>Name: Z to A</t>
+  </si>
+  <si>
+    <t>Price: Low to High</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,14 +156,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{70CEDDFB-5773-4B43-96A4-014F1CD01BAE}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F1EA3627-0AC8-4132-8137-ECF1EED9ABB3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +451,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14527BE2-C604-4C45-8C1D-C96CF0B17E93}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F697BD62-E361-4A77-9ED0-7A80EBC9EA34}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE1455E-DBA7-4E52-A1BF-EDBB7F7C64FA}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3530573-CEAB-404A-A075-A8B96D2BD2CC}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>